--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -863,6 +863,9 @@
       <c r="C51" t="str">
         <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -924,7 +927,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0421514647241511252262582106381215828965205053352020184612102055583430</v>
+        <v>04215146472415112522625821063812158289652050533520201846121020555834317</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -867,9 +867,172 @@
         <v>17</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>7</v>
+      </c>
+      <c r="C52" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>595_玉兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>557_山茶花_camellia_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>367_高山羊齿叶_lady fern_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>485_情人草_Limonium/Misty_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>8</v>
+      </c>
+      <c r="C68" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -927,7 +1090,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>04215146472415112522625821063812158289652050533520201846121020555834317</v>
+        <v>042151464724151125226258210638121582896520505335202018461210205558343171732127815552523410510955100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -1029,6 +1029,9 @@
       <c r="C71" t="str">
         <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F71" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1090,7 +1093,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>042151464724151125226258210638121582896520505335202018461210205558343171732127815552523410510955100</v>
+        <v>042151464724151125226258210638121582896520505335202018461210205558343171732127815552523410510955103</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,9 +1033,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L72"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1093,7 +1098,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>042151464724151125226258210638121582896520505335202018461210205558343171732127815552523410510955103</v>
+        <v>0421514647241511252262582106381215828965205053352020184612102055583431717321278155525234105109551030</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -1037,6 +1037,9 @@
       <c r="A72" t="str">
         <v>9</v>
       </c>
+      <c r="C72" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -1040,6 +1040,9 @@
       <c r="C72" t="str">
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
+      <c r="F72" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1101,7 +1104,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0421514647241511252262582106381215828965205053352020184612102055583431717321278155525234105109551030</v>
+        <v>0421514647241511252262582106381215828965205053352020184612102055583431717321278155525234105109551034</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -1041,7 +1041,7 @@
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
       <c r="F72" t="str">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1104,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0421514647241511252262582106381215828965205053352020184612102055583431717321278155525234105109551034</v>
+        <v>04215146472415112522625821063812158289652050533520201846121020555834317173212781555252341051095510340</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-29.xlsx
@@ -1106,6 +1106,9 @@
       <c r="G2" t="str">
         <v>04215146472415112522625821063812158289652050533520201846121020555834317173212781555252341051095510340</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
